--- a/template/EmployeeName_PersonalIncomeTaxComputation_YA2024.xlsx
+++ b/template/EmployeeName_PersonalIncomeTaxComputation_YA2024.xlsx
@@ -2,19 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tony\projects\playground\pwc_extractor\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE45F4BD-3D2C-4688-977D-92183735C81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE5797E-863D-4236-91CB-D38981E7636F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BDB22C7D-85F3-4ECC-B487-79F1C7A79DDD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tax Comp (Resident)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Tax Comp" sheetId="1" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>PricewaterhouseCoopers Taxation Services Sdn Bhd</t>
   </si>
@@ -139,20 +145,55 @@
   <si>
     <t>BALANCE OF TAX PAYABLE / (TAX OVERPAID)</t>
   </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Relief type</t>
+  </si>
+  <si>
+    <t>Claimed Amount</t>
+  </si>
+  <si>
+    <t>Self relief</t>
+  </si>
+  <si>
+    <t>Lifestyle relief</t>
+  </si>
+  <si>
+    <t>Tax Category</t>
+  </si>
+  <si>
+    <t>MTD paid</t>
+  </si>
+  <si>
+    <t>Balance of Tax Payable</t>
+  </si>
+  <si>
+    <t>Total Tax Payable</t>
+  </si>
+  <si>
+    <t>Tax Payable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="[$RM-4409]#,##0.00;[Red][$RM-4409]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??.00_-;_-@"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00;\(#,##0.00\)"/>
-    <numFmt numFmtId="169" formatCode="0_ ;\-0\ "/>
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="[$RM-4409]#,##0.00;[Red][$RM-4409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??.00_-;_-@"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="170" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -193,8 +234,23 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +261,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -246,10 +308,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -270,16 +333,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -291,7 +354,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,16 +363,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,7 +384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -342,27 +405,40 @@
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -375,7 +451,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,45 +468,710 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{379ABA42-0339-42E6-9D20-F678BEBB41E3}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D035F3C0-A8B1-BF17-E748-015AF8523A9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1038225" y="995362"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="PwC">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="7D7D7D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="DEDEDE"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="D04A02"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="FFB600"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="E0301E"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="EB8C00"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="DB536A"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="464646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="D04A02"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="DB536A"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -707,15 +1449,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05779B92-0E94-441E-B6DD-A9F847FEA0BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F1C5EF-2FFB-40B2-9FBD-E1C67C5070EE}">
   <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -755,12 +1511,12 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -938,13 +1694,13 @@
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1302,12 +2058,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="15">
         <v>0</v>
       </c>
@@ -1508,13 +2264,13 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1706,7 +2462,8 @@
       <c r="C38" s="5"/>
       <c r="D38" s="8"/>
       <c r="E38" s="31">
-        <v>0</v>
+        <f>IF(E29&lt;=35000, -400, 0)</f>
+        <v>-400</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1732,7 +2489,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="32">
+      <c r="E39" s="38">
         <v>0</v>
       </c>
       <c r="F39" s="4"/>
@@ -1759,7 +2516,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="31">
         <f>SUM(E36:E39)</f>
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1833,7 +2590,7 @@
     <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="33"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="5"/>
       <c r="E43" s="31"/>
       <c r="F43" s="4"/>
@@ -1854,15 +2611,15 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="35">
+      <c r="E44" s="34">
         <f>SUM(E40:E42)</f>
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1932,7 +2689,7 @@
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="36"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -1955,7 +2712,7 @@
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="36"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -2158,9 +2915,9 @@
       <c r="U56" s="4"/>
     </row>
     <row r="57" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="4"/>
       <c r="E57" s="9"/>
       <c r="F57" s="4"/>
@@ -23994,4 +24751,204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74036DF7-04C8-44AF-9CC9-6C60D6938201}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B2:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <f>'Tax Comp'!A14</f>
+        <v>Gross salary, wages or leave pay</v>
+      </c>
+      <c r="C3" s="40">
+        <f>'Tax Comp'!E14</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="45">
+        <v>9000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="47">
+        <f>'Tax Comp'!E36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f>'Tax Comp'!A15</f>
+        <v>Bonuses / Director fees</v>
+      </c>
+      <c r="C4" s="40">
+        <f>'Tax Comp'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="44">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="40">
+        <f>'Tax Comp'!E42</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="40">
+        <f>'Tax Comp'!E44</f>
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>'Tax Comp'!A16</f>
+        <v>Gross tips, perquisites or other allowances</v>
+      </c>
+      <c r="C5" s="40">
+        <f>'Tax Comp'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="46">
+        <f>SUM(F3:F4)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>'Tax Comp'!A17</f>
+        <v>Tax allowance (YA 2023)</v>
+      </c>
+      <c r="C6" s="40">
+        <f>'Tax Comp'!E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <f>'Tax Comp'!A18</f>
+        <v>Equity income</v>
+      </c>
+      <c r="C7" s="40">
+        <f>'Tax Comp'!E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f>'Tax Comp'!A19</f>
+        <v>Gratuity</v>
+      </c>
+      <c r="C8" s="40">
+        <f>'Tax Comp'!E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>'Tax Comp'!A20</f>
+        <v>Payment in arrears</v>
+      </c>
+      <c r="C9" s="40">
+        <f>'Tax Comp'!E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>'Tax Comp'!A21</f>
+        <v>Benefits-in-kind</v>
+      </c>
+      <c r="C10" s="40">
+        <f>'Tax Comp'!E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f>'Tax Comp'!A22</f>
+        <v>Value of living accommodation</v>
+      </c>
+      <c r="C11" s="40">
+        <f>'Tax Comp'!E22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f>'Tax Comp'!A23</f>
+        <v>Refund from unapproved Pension or Provident Fund</v>
+      </c>
+      <c r="C12" s="40">
+        <f>'Tax Comp'!E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>'Tax Comp'!A24</f>
+        <v xml:space="preserve">Compensation for loss of employment </v>
+      </c>
+      <c r="C13" s="40">
+        <f>'Tax Comp'!E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="41">
+        <f>SUM(C3:C13)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>